--- a/Content/templates/devin/mol.xlsx
+++ b/Content/templates/devin/mol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Devin\Devin\Content\templates\devin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C69183E-80EA-4A59-9FCE-9551B7BB6594}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2C402-95F9-409A-AC08-1D167C6A2BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -293,19 +293,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -318,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -344,17 +331,11 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -676,10 +657,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -710,17 +691,17 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -737,19 +718,19 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -764,36 +745,36 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="22" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
@@ -803,7 +784,7 @@
       <c r="H8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
@@ -817,479 +798,82 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="A11" s="12">
+        <v>42419</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
-        <v>42419</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
